--- a/Documentos/tablas_app.xlsx
+++ b/Documentos/tablas_app.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Notificaciones</t>
   </si>
@@ -92,6 +92,87 @@
   </si>
   <si>
     <t>user_eventos</t>
+  </si>
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t>id_actividad</t>
+  </si>
+  <si>
+    <t>id_logro</t>
+  </si>
+  <si>
+    <t>porcentaje</t>
+  </si>
+  <si>
+    <t>nom_actividad</t>
+  </si>
+  <si>
+    <t>Desc_actividad</t>
+  </si>
+  <si>
+    <t>Nota_Actividad</t>
+  </si>
+  <si>
+    <t>id_nota_acti</t>
+  </si>
+  <si>
+    <t>id_estud</t>
+  </si>
+  <si>
+    <t>nota_acti</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>examen</t>
+  </si>
+  <si>
+    <t>tarea</t>
+  </si>
+  <si>
+    <t>Nota_logro</t>
+  </si>
+  <si>
+    <t>id_nota_logro</t>
+  </si>
+  <si>
+    <t>nota_logro</t>
+  </si>
+  <si>
+    <t>Logro</t>
+  </si>
+  <si>
+    <t>id_carg</t>
+  </si>
+  <si>
+    <t>id_periodo</t>
+  </si>
+  <si>
+    <t>nom_logro</t>
+  </si>
+  <si>
+    <t>Desc_logro</t>
+  </si>
+  <si>
+    <t>carecterizar</t>
+  </si>
+  <si>
+    <t>y diferenciar</t>
+  </si>
+  <si>
+    <t>identificar</t>
+  </si>
+  <si>
+    <t>y comparar</t>
+  </si>
+  <si>
+    <t>id_estu</t>
   </si>
 </sst>
 </file>
@@ -458,17 +539,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -764,8 +850,291 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>200</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H30" s="1">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J30" s="1">
+        <v>29036</v>
+      </c>
+      <c r="L30" s="1">
+        <v>15</v>
+      </c>
+      <c r="M30" s="1">
+        <v>100</v>
+      </c>
+      <c r="N30" s="1">
+        <v>29036246</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1">
+        <v>80</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2001</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>29036</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1">
+        <v>200</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2002</v>
+      </c>
+      <c r="H32" s="1">
+        <v>9</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>28356</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
